--- a/doc_strutucture.xlsx
+++ b/doc_strutucture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufpebr0-my.sharepoint.com/personal/marcus_torres_ufpe_br/Documents/UFPE/DOUTORADO/dynastiesBR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{C78D0818-CDBA-4870-87C3-7B5C6F709355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{914FF961-B194-4A0B-8E14-89A1C75E2F50}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{C78D0818-CDBA-4870-87C3-7B5C6F709355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A190F550-DDF5-4AD9-B749-937C233F0E16}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{176FE2DB-701A-4519-BDE4-912EA31D2C78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="146">
   <si>
     <t>UF</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/MG/41238/426/candidatos/289933/15_1600126854656.pdf</t>
+  </si>
+  <si>
+    <t>FILIAÇAO 1:/n FILIAÇAO 2</t>
   </si>
 </sst>
 </file>
@@ -826,11 +829,14 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="A2:O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1505,6 +1511,9 @@
       </c>
       <c r="L21">
         <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>145</v>
       </c>
       <c r="N21" t="s">
         <v>34</v>

--- a/doc_strutucture.xlsx
+++ b/doc_strutucture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufpebr0-my.sharepoint.com/personal/marcus_torres_ufpe_br/Documents/UFPE/DOUTORADO/dynastiesBR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{C78D0818-CDBA-4870-87C3-7B5C6F709355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A190F550-DDF5-4AD9-B749-937C233F0E16}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{C78D0818-CDBA-4870-87C3-7B5C6F709355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C9394885-2D82-4D20-8EB7-3185147C91B2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{176FE2DB-701A-4519-BDE4-912EA31D2C78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="175">
   <si>
     <t>UF</t>
   </si>
@@ -463,6 +463,93 @@
   </si>
   <si>
     <t>FILIAÇAO 1:/n FILIAÇAO 2</t>
+  </si>
+  <si>
+    <t>Juiz de Fora</t>
+  </si>
+  <si>
+    <t>Nome pai: /n Nome mãe:</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/MG/47333/426/candidatos/93749/14_1599613677546.pdf</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/RJ/60011/426/candidatos/426850/11_1600455217689.pdf</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/RJ/60011/426/candidatos/426850/12_1600455222421.pdf</t>
+  </si>
+  <si>
+    <t>e de</t>
+  </si>
+  <si>
+    <t>Certidão de Registo de Distribuição de feitos Ajuizados</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/RJ/60011/426/candidatos/426850/13_1600455218336.pdf</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/RJ/60011/426/candidatos/426850/13_1600455222988.pdf</t>
+  </si>
+  <si>
+    <t>Filiação: (MAE) e PAI</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/RJ/60011/426/candidatos/426850/14_1600455222008.pdf</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>CERTIDÃO DE DISTRIBUIÇÃO PARA FINS ELEITORAIS</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/SP/71072/426/candidatos/537551/12_1600890425849.pdf</t>
+  </si>
+  <si>
+    <t>CERTIDÃO ESTADUAL DE DISTRIBUIÇÕES CRIMINAIS</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/SP/71072/426/candidatos/537551/13_1600890426512.pdf</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/SP/71072/426/candidatos/537551/11_1600890425080.pdf</t>
+  </si>
+  <si>
+    <t>Câmara Municipal</t>
+  </si>
+  <si>
+    <t>CERTIDÃO</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/SP/71072/426/candidatos/537551/15_1600890424382.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filho de </t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/SP/71072/426/candidatos/537551/13_1600890429846.pdf</t>
+  </si>
+  <si>
+    <t>C E R T I D Ã O P A R A F I N S E L E I T O R A I S</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/SP/71072/426/candidatos/537551/14_1600890428857.pdf</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/SP/71072/426/candidatos/537551/13_1600890430740.pdf</t>
+  </si>
+  <si>
+    <t>https://divulgacandcontas.tse.jus.br/candidaturas/oficial/2020/SP/71072/426/candidatos/537551/13_1600890431405.pdf</t>
   </si>
 </sst>
 </file>
@@ -826,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DA7670-77B9-4F13-A20B-103B546E1918}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="A2:O57"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2693,6 +2780,472 @@
       </c>
       <c r="O57" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" t="s">
+        <v>146</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58" t="s">
+        <v>147</v>
+      </c>
+      <c r="N58" t="s">
+        <v>93</v>
+      </c>
+      <c r="O58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" t="s">
+        <v>150</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>149</v>
+      </c>
+      <c r="I60" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I61" t="s">
+        <v>150</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61" t="s">
+        <v>153</v>
+      </c>
+      <c r="N61" t="s">
+        <v>154</v>
+      </c>
+      <c r="O61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>149</v>
+      </c>
+      <c r="I62" t="s">
+        <v>150</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62" t="s">
+        <v>75</v>
+      </c>
+      <c r="N62" t="s">
+        <v>154</v>
+      </c>
+      <c r="O62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>149</v>
+      </c>
+      <c r="I63" t="s">
+        <v>150</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63" t="s">
+        <v>157</v>
+      </c>
+      <c r="O63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64" t="s">
+        <v>160</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>161</v>
+      </c>
+      <c r="O64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" t="s">
+        <v>160</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>66</v>
+      </c>
+      <c r="N65" t="s">
+        <v>163</v>
+      </c>
+      <c r="O65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I66" t="s">
+        <v>160</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>161</v>
+      </c>
+      <c r="O66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" t="s">
+        <v>159</v>
+      </c>
+      <c r="I67" t="s">
+        <v>160</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67" t="s">
+        <v>66</v>
+      </c>
+      <c r="N67" t="s">
+        <v>167</v>
+      </c>
+      <c r="O67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>159</v>
+      </c>
+      <c r="I68" t="s">
+        <v>160</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68" t="s">
+        <v>169</v>
+      </c>
+      <c r="N68" t="s">
+        <v>163</v>
+      </c>
+      <c r="O68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>159</v>
+      </c>
+      <c r="I69" t="s">
+        <v>160</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>171</v>
+      </c>
+      <c r="O69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>159</v>
+      </c>
+      <c r="I70" t="s">
+        <v>160</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70" t="s">
+        <v>66</v>
+      </c>
+      <c r="N70" t="s">
+        <v>163</v>
+      </c>
+      <c r="O70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>159</v>
+      </c>
+      <c r="I71" t="s">
+        <v>160</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71" t="s">
+        <v>66</v>
+      </c>
+      <c r="N71" t="s">
+        <v>163</v>
+      </c>
+      <c r="O71" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
